--- a/PC 2.1.xlsx
+++ b/PC 2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Estudo\Programacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsousa\Downloads\PC-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43867A-7E01-41E1-B381-878D32624B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388ABAA4-65E4-4BB2-853B-FA945B8C6059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="857" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,17 @@
     <sheet name="Teclado" sheetId="9" r:id="rId10"/>
     <sheet name="Resumo" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="131">
   <si>
     <t>Marca</t>
   </si>
@@ -313,12 +307,6 @@
     <t>7200 RPM</t>
   </si>
   <si>
-    <t xml:space="preserve">Socket, Freq Memoria, </t>
-  </si>
-  <si>
-    <t>PRIME B450M-GAMING/BR</t>
-  </si>
-  <si>
     <t>75 Hz</t>
   </si>
   <si>
@@ -422,6 +410,24 @@
   </si>
   <si>
     <t>THERMALTAKE </t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/102437/processador-amd-ryzen-5-3600x-cache-32mb-3-8ghz-4-4ghz-max-turbo-am4-sem-video-100-100000022box</t>
+  </si>
+  <si>
+    <t>AMD RYZEN 5 3600X</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/100672/placa-mae-asrock-b450m-steel-legend-amd-am4-matx-ddr4-90-mxb9y0-a0bayz?gclid=EAIaIQobChMI-fyhzZ3Y6gIVh4GRCh2ILwWgEAQYASABEgJ1dfD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/93427/placa-mae-asus-prime-a320m-k-br-amd-am4-matx-ddr4?gclid=EAIaIQobChMI8_Tepp_Y6gIVigaRCh1jLQwcEAYYASABEgL7p_D_BwE</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/96366/fonte-cooler-master-600w-80-plus-bronze-mwe-mpx-6001-acaab</t>
+  </si>
+  <si>
+    <t>*Sem perifericos e placa de video</t>
   </si>
 </sst>
 </file>
@@ -429,8 +435,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -495,15 +501,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,7 +832,7 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,13 +978,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -993,7 +999,7 @@
         <v>2000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1001,13 +1007,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1022,7 +1028,7 @@
         <v>2300</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1051,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!D3,Processador!$B$4:$AC$4,0))</f>
@@ -1325,23 +1331,23 @@
       </c>
       <c r="E5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!E3,Processador!$B$4:$AC$4,0))</f>
-        <v>Pichau</v>
+        <v>Kabum</v>
       </c>
       <c r="F5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!F3,Processador!$B$4:$AC$4,0))</f>
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="G5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!G3,Processador!$B$4:$AC$4,0))</f>
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="H5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!H3,Processador!$B$4:$AC$4,0))</f>
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="I5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!I3,Processador!$B$4:$AC$4,0))</f>
-        <v>https://www.pichau.com.br/hardware/processador-amd-ryzen-5-3500x-hexa-core-3-6ghz-4-1ghz-turbo-35mb-cache-am4-100-100000158box</v>
+        <v>https://www.kabum.com.br/produto/102437/processador-amd-ryzen-5-3600x-cache-32mb-3-8ghz-4-4ghz-max-turbo-am4-sem-video-100-100000022box</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1445,7 +1451,7 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="str">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!D3,Fonte!$B$3:$S$3,0))</f>
@@ -1457,19 +1463,19 @@
       </c>
       <c r="F9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!F3,Fonte!$B$3:$S$3,0))</f>
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="G9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!G3,Fonte!$B$3:$S$3,0))</f>
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="H9" s="3">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!H3,Fonte!$B$3:$S$3,0))</f>
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="I9" t="str">
         <f>INDEX(Fonte!$B$4:$W$33,MATCH(Resumo!$C$9,Fonte!$B$4:$B$82,0),MATCH(Resumo!I3,Fonte!$B$3:$S$3,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO</v>
+        <v>https://www.kabum.com.br/produto/96366/fonte-cooler-master-600w-80-plus-bronze-mwe-mpx-6001-acaab</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -1570,10 +1576,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="str">
         <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!D3,'Placa Mãe'!$B$3:$R$3,0))</f>
@@ -1585,24 +1591,24 @@
       </c>
       <c r="F13" s="3">
         <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!F3,'Placa Mãe'!$B$3:$R$3,0))</f>
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="G13" s="3">
         <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!G3,'Placa Mãe'!$B$3:$R$3,0))</f>
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="H13" s="3">
         <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!H3,'Placa Mãe'!$B$3:$R$3,0))</f>
-        <v>670</v>
+        <v>520</v>
       </c>
       <c r="I13" t="str">
         <f>INDEX('Placa Mãe'!$B$4:$R$41,MATCH(Resumo!$C$13,'Placa Mãe'!$B$4:$B$75,0),MATCH(Resumo!I3,'Placa Mãe'!$B$3:$R$3,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=99504&amp;gclid=EAIaIQobChMInafFvfma6QIVrgOzAB3A-gcJEAYYASABEgLRv_D_BwE</v>
+        <v>https://www.kabum.com.br/produto/93427/placa-mae-asus-prime-a320m-k-br-amd-am4-matx-ddr4?gclid=EAIaIQobChMI8_Tepp_Y6gIVigaRCh1jLQwcEAYYASABEgL7p_D_BwE</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1673,21 +1679,24 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4">
         <f t="shared" ref="F16:H16" si="0">SUM(F4:F15)</f>
-        <v>5650</v>
+        <v>6030</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>6363</v>
+        <v>6743</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+        <v>6856</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="3">
-        <f>H16-H4-H12</f>
-        <v>4416</v>
+        <f>H16-H4-H12-H11-H15</f>
+        <v>3973</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1810,7 @@
   <dimension ref="A3:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,13 +1930,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
         <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" t="s">
-        <v>114</v>
       </c>
       <c r="G7" s="3">
         <v>1250</v>
@@ -1939,18 +1948,41 @@
         <v>1250</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>90</v>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1960,18 +1992,19 @@
     <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="J7" r:id="rId3" xr:uid="{2034CF8A-D16A-47E3-AC92-9CE2A996B89C}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{2580AFE2-7E88-4D6B-A69E-08D001A4D241}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43BF996-7028-4BAC-8723-8C240D667685}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +2014,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1998,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -2039,7 +2072,7 @@
         <v>495</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2065,7 +2098,59 @@
         <v>670</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>820</v>
+      </c>
+      <c r="G6" s="3">
+        <v>820</v>
+      </c>
+      <c r="H6" s="3">
+        <v>820</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>520</v>
+      </c>
+      <c r="G7" s="3">
+        <v>520</v>
+      </c>
+      <c r="H7" s="3">
+        <v>520</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2075,6 +2160,8 @@
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{6C5E3A68-CE2F-461B-9D25-C50A2CACAFD7}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{5EEC1B29-291C-4A0B-80A7-2BD25BA067AC}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{72E3C883-117D-4AC5-A894-BBA3580E8986}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{D1EBFB06-D439-4746-9A37-A495B1535800}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2229,13 +2316,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -2250,7 +2337,7 @@
         <v>250</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2258,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -2279,7 +2366,7 @@
         <v>532</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2390,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2525,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -2453,7 +2540,7 @@
         <v>323</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2596,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -2538,10 +2625,10 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="3">
         <v>349</v>
@@ -2553,7 +2640,7 @@
         <v>349</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -2567,7 +2654,7 @@
         <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -2582,7 +2669,7 @@
         <v>390</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -2590,13 +2677,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -2611,7 +2698,7 @@
         <v>390</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2630,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,12 +2793,39 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>440</v>
+      </c>
+      <c r="G5" s="3">
+        <v>440</v>
+      </c>
+      <c r="H5" s="3">
+        <v>440</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=93995&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO&amp;utm_content=LINHA-500-W&amp;utm_campaign=FONTE%20COOLER%20MASTER%20ATX%20500W%2080%20PLUS%20WHITE%20MASTERWATT%20LITE%20MPX%205001%20ACAAW%20WO" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{6088F246-D8D4-4C88-AEF6-74E8524C11A9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2722,7 +2836,7 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,10 +2906,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="3">
         <v>300</v>
@@ -2807,7 +2921,7 @@
         <v>300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2942,7 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +3089,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>24</v>
@@ -2993,7 +3107,7 @@
         <v>700</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -3004,7 +3118,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>19.5</v>
@@ -3022,7 +3136,7 @@
         <v>433</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
